--- a/Felhasznalok.xlsx
+++ b/Felhasznalok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gorho\Asztali gép\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zoli\Susu\Vizsgaremek\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36EF214-5BC6-476E-9A3D-474961794461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8C725-FA80-4648-B265-90010313A256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{72D7A7A1-EFBB-4D02-A131-543A046F3199}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{72D7A7A1-EFBB-4D02-A131-543A046F3199}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Üzemeltetők</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Valkusz Marcell</t>
+  </si>
+  <si>
+    <t>Alapértelmezett jelszó</t>
+  </si>
+  <si>
+    <t>Asd123!</t>
+  </si>
+  <si>
+    <t>Első bejelentkezés után megváltoztandó!</t>
   </si>
 </sst>
 </file>
@@ -165,29 +174,912 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="57">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,7 +1095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,68 +1392,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{579A5A21-134C-44F5-981A-FE848CF06BE9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" s="15"/>
+      <c r="G2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="46" t="str">
         <f>LEFT(PROPER(LEFT(B3,3)&amp;TRIM(RIGHT(SUBSTITUTE(B3," ",REPT(" ",99)),99))),6)</f>
         <v>Valján</v>
       </c>
-      <c r="D3" s="1" t="str" cm="1">
+      <c r="D3" s="43" t="str" cm="1">
         <f t="array" ref="D3">StripAccent(C3)</f>
         <v>Valjan</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="3" t="str">
         <f>D3&amp;123</f>
         <v>Valjan123</v>
       </c>
@@ -569,44 +1473,44 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="47" t="str">
         <f t="shared" ref="C4:C6" si="0">LEFT(PROPER(LEFT(B4,3)&amp;TRIM(RIGHT(SUBSTITUTE(B4," ",REPT(" ",99)),99))),6)</f>
         <v>Fülist</v>
       </c>
-      <c r="D4" s="1" t="str" cm="1">
+      <c r="D4" s="44" t="str" cm="1">
         <f t="array" ref="D4">StripAccent(C4)</f>
         <v>Fulist</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="42" t="str">
         <f t="shared" ref="E4:E6" si="1">D4&amp;123</f>
         <v>Fulist123</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Paplén</v>
       </c>
-      <c r="D5" s="1" t="str" cm="1">
+      <c r="D5" s="2" t="str" cm="1">
         <f t="array" ref="D5">StripAccent(C5)</f>
         <v>Paplen</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="42" t="str">
         <f t="shared" si="1"/>
         <v>Paplen123</v>
       </c>
@@ -614,22 +1518,22 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>Vörzét</v>
       </c>
-      <c r="D6" s="1" t="str" cm="1">
+      <c r="D6" s="45" t="str" cm="1">
         <f t="array" ref="D6">StripAccent(C6)</f>
         <v>Vorzet</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="41" t="str">
         <f t="shared" si="1"/>
         <v>Vorzet123</v>
       </c>
@@ -637,64 +1541,64 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="46" t="str">
         <f>LEFT(PROPER(LEFT(B10,3)&amp;TRIM(RIGHT(SUBSTITUTE(B10," ",REPT(" ",99)),99))),6)</f>
         <v>Kovibo</v>
       </c>
-      <c r="D10" s="1" t="str" cm="1">
+      <c r="D10" s="46" t="str" cm="1">
         <f t="array" ref="D10">StripAccent(C10)</f>
         <v>Kovibo</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="50" t="str">
         <f>D10&amp;123</f>
         <v>Kovibo123</v>
       </c>
@@ -702,44 +1606,44 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="35" t="str">
         <f t="shared" ref="C11:C13" si="2">LEFT(PROPER(LEFT(B11,3)&amp;TRIM(RIGHT(SUBSTITUTE(B11," ",REPT(" ",99)),99))),6)</f>
         <v>Bujben</v>
       </c>
-      <c r="D11" s="1" t="str" cm="1">
+      <c r="D11" s="35" t="str" cm="1">
         <f t="array" ref="D11">StripAccent(C11)</f>
         <v>Bujben</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" s="42" t="str">
         <f t="shared" ref="E11:E13" si="3">D11&amp;123</f>
         <v>Bujben123</v>
       </c>
       <c r="F11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="35" t="str">
         <f t="shared" si="2"/>
         <v>Paplan</v>
       </c>
-      <c r="D12" s="1" t="str" cm="1">
+      <c r="D12" s="35" t="str" cm="1">
         <f t="array" ref="D12">StripAccent(C12)</f>
         <v>Paplan</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Paplan123</v>
       </c>
@@ -747,22 +1651,22 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Budosh</v>
       </c>
-      <c r="D13" s="1" t="str" cm="1">
+      <c r="D13" s="48" t="str" cm="1">
         <f t="array" ref="D13">StripAccent(C13)</f>
         <v>Budosh</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="4" t="str">
         <f t="shared" si="3"/>
         <v>Budosh123</v>
       </c>
@@ -770,284 +1674,289 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="56">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="46" t="str">
         <f>LEFT(PROPER(LEFT(B17,3)&amp;TRIM(RIGHT(SUBSTITUTE(B17," ",REPT(" ",99)),99))),6)</f>
         <v>Telcsi</v>
       </c>
-      <c r="D17" s="1" t="str" cm="1">
+      <c r="D17" s="46" t="str" cm="1">
         <f t="array" ref="D17">StripAccent(C17)</f>
         <v>Telcsi</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" s="50" t="str">
         <f>D17&amp;123</f>
         <v>Telcsi123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="55">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="35" t="str">
         <f t="shared" ref="C18:C22" si="4">LEFT(PROPER(LEFT(B18,3)&amp;TRIM(RIGHT(SUBSTITUTE(B18," ",REPT(" ",99)),99))),6)</f>
         <v>Koldul</v>
       </c>
-      <c r="D18" s="1" t="str" cm="1">
+      <c r="D18" s="35" t="str" cm="1">
         <f t="array" ref="D18">StripAccent(C18)</f>
         <v>Koldul</v>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" s="42" t="str">
         <f t="shared" ref="E18:E22" si="5">D18&amp;123</f>
         <v>Koldul123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="55">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="35" t="str">
         <f t="shared" si="4"/>
         <v>Kocsim</v>
       </c>
-      <c r="D19" s="1" t="str" cm="1">
+      <c r="D19" s="35" t="str" cm="1">
         <f t="array" ref="D19">StripAccent(C19)</f>
         <v>Kocsim</v>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" s="42" t="str">
         <f t="shared" si="5"/>
         <v>Kocsim123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="55">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="35" t="str">
         <f t="shared" si="4"/>
         <v>Végzet</v>
       </c>
-      <c r="D20" s="1" t="str" cm="1">
+      <c r="D20" s="35" t="str" cm="1">
         <f t="array" ref="D20">StripAccent(C20)</f>
         <v>Vegzet</v>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="E20" s="42" t="str">
         <f t="shared" si="5"/>
         <v>Vegzet123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="55">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="35" t="str">
         <f t="shared" si="4"/>
         <v>Mohabd</v>
       </c>
-      <c r="D21" s="1" t="str" cm="1">
+      <c r="D21" s="35" t="str" cm="1">
         <f t="array" ref="D21">StripAccent(C21)</f>
         <v>Mohabd</v>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="E21" s="42" t="str">
         <f t="shared" si="5"/>
         <v>Mohabd123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C22" s="48" t="str">
         <f t="shared" si="4"/>
         <v>Tankri</v>
       </c>
-      <c r="D22" s="1" t="str" cm="1">
+      <c r="D22" s="48" t="str" cm="1">
         <f t="array" ref="D22">StripAccent(C22)</f>
         <v>Tankri</v>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="E22" s="4" t="str">
         <f t="shared" si="5"/>
         <v>Tankri123</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="56">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="46" t="str">
         <f>LEFT(PROPER(LEFT(B26,3)&amp;TRIM(RIGHT(SUBSTITUTE(B26," ",REPT(" ",99)),99))),6)</f>
         <v>Viselt</v>
       </c>
-      <c r="D26" s="1" t="str" cm="1">
+      <c r="D26" s="46" t="str" cm="1">
         <f t="array" ref="D26">StripAccent(C26)</f>
         <v>Viselt</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="E26" s="50" t="str">
         <f>D26&amp;123</f>
         <v>Viselt123</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="55">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="35" t="str">
         <f>LEFT(PROPER(LEFT(B27,3)&amp;TRIM(RIGHT(SUBSTITUTE(B27," ",REPT(" ",99)),99))),6)</f>
         <v>Megmar</v>
       </c>
-      <c r="D27" s="1" t="str" cm="1">
+      <c r="D27" s="35" t="str" cm="1">
         <f t="array" ref="D27">StripAccent(C27)</f>
         <v>Megmar</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" s="42" t="str">
         <f>D27&amp;123</f>
         <v>Megmar123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="55">
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" ref="C27:C30" si="6">LEFT(PROPER(LEFT(B28,3)&amp;TRIM(RIGHT(SUBSTITUTE(B28," ",REPT(" ",99)),99))),6)</f>
+      <c r="C28" s="35" t="str">
+        <f t="shared" ref="C28:C30" si="6">LEFT(PROPER(LEFT(B28,3)&amp;TRIM(RIGHT(SUBSTITUTE(B28," ",REPT(" ",99)),99))),6)</f>
         <v>Lakkat</v>
       </c>
-      <c r="D28" s="1" t="str" cm="1">
+      <c r="D28" s="35" t="str" cm="1">
         <f t="array" ref="D28">StripAccent(C28)</f>
         <v>Lakkat</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" ref="E27:E30" si="7">D28&amp;123</f>
+      <c r="E28" s="42" t="str">
+        <f t="shared" ref="E28:E30" si="7">D28&amp;123</f>
         <v>Lakkat123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="55">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="35" t="str">
         <f t="shared" si="6"/>
         <v>Valmar</v>
       </c>
-      <c r="D29" s="1" t="str" cm="1">
+      <c r="D29" s="35" t="str" cm="1">
         <f t="array" ref="D29">StripAccent(C29)</f>
         <v>Valmar</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" s="42" t="str">
         <f t="shared" si="7"/>
         <v>Valmar123</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>5</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C30" s="48" t="str">
         <f t="shared" si="6"/>
         <v>Balkon</v>
       </c>
-      <c r="D30" s="1" t="str" cm="1">
+      <c r="D30" s="48" t="str" cm="1">
         <f t="array" ref="D30">StripAccent(C30)</f>
         <v>Balkon</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" s="4" t="str">
         <f t="shared" si="7"/>
         <v>Balkon123</v>
       </c>
     </row>
+    <row r="31" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Felhasznalok.xlsx
+++ b/Felhasznalok.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zoli\Susu\Vizsgaremek\Vizsgaremek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\!NEU - szakmai\!!vizsgaremek\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8C725-FA80-4648-B265-90010313A256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8934B3AF-ED67-4ADC-B0D9-E3C76F50168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{72D7A7A1-EFBB-4D02-A131-543A046F3199}"/>
+    <workbookView xWindow="1170" yWindow="885" windowWidth="32355" windowHeight="19995" xr2:uid="{72D7A7A1-EFBB-4D02-A131-543A046F3199}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Üzemeltetők</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Teljes név</t>
   </si>
   <si>
-    <t>Belépési név</t>
-  </si>
-  <si>
     <t>Jelszó</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Pap Lantos</t>
   </si>
   <si>
-    <t>Budai Oshvát</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -151,6 +145,15 @@
   </si>
   <si>
     <t>Első bejelentkezés után megváltoztandó!</t>
+  </si>
+  <si>
+    <t>Felhasználónév</t>
+  </si>
+  <si>
+    <t>Budai Lajos</t>
+  </si>
+  <si>
+    <t>Budlaj</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -271,26 +274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -321,19 +304,6 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -896,11 +866,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,166 +900,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1095,9 +1068,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1135,7 +1108,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1241,7 +1214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1383,7 +1356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1395,73 +1368,67 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="F2" s="6"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="str">
+      <c r="C3" s="31" t="str">
         <f>LEFT(PROPER(LEFT(B3,3)&amp;TRIM(RIGHT(SUBSTITUTE(B3," ",REPT(" ",99)),99))),6)</f>
         <v>Valján</v>
       </c>
-      <c r="D3" s="43" t="str" cm="1">
+      <c r="D3" s="28" t="str" cm="1">
         <f t="array" ref="D3">StripAccent(C3)</f>
         <v>Valjan</v>
       </c>
@@ -1470,25 +1437,32 @@
         <v>Valjan123</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="str">
+      <c r="C4" s="42" t="str">
         <f t="shared" ref="C4:C6" si="0">LEFT(PROPER(LEFT(B4,3)&amp;TRIM(RIGHT(SUBSTITUTE(B4," ",REPT(" ",99)),99))),6)</f>
         <v>Fülist</v>
       </c>
-      <c r="D4" s="44" t="str" cm="1">
+      <c r="D4" s="29" t="str" cm="1">
         <f t="array" ref="D4">StripAccent(C4)</f>
         <v>Fulist</v>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="27" t="str">
         <f t="shared" ref="E4:E6" si="1">D4&amp;123</f>
         <v>Fulist123</v>
       </c>
@@ -1496,13 +1470,13 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="str">
+      <c r="C5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Paplén</v>
       </c>
@@ -1510,7 +1484,7 @@
         <f t="array" ref="D5">StripAccent(C5)</f>
         <v>Paplen</v>
       </c>
-      <c r="E5" s="42" t="str">
+      <c r="E5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>Paplen123</v>
       </c>
@@ -1519,21 +1493,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="str">
+      <c r="C6" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Vörzét</v>
       </c>
-      <c r="D6" s="45" t="str" cm="1">
+      <c r="D6" s="30" t="str" cm="1">
         <f t="array" ref="D6">StripAccent(C6)</f>
         <v>Vorzet</v>
       </c>
-      <c r="E6" s="41" t="str">
+      <c r="E6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>Vorzet123</v>
       </c>
@@ -1552,53 +1526,53 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="46" t="str">
+      <c r="B10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="31" t="str">
         <f>LEFT(PROPER(LEFT(B10,3)&amp;TRIM(RIGHT(SUBSTITUTE(B10," ",REPT(" ",99)),99))),6)</f>
         <v>Kovibo</v>
       </c>
-      <c r="D10" s="46" t="str" cm="1">
+      <c r="D10" s="31" t="str" cm="1">
         <f t="array" ref="D10">StripAccent(C10)</f>
         <v>Kovibo</v>
       </c>
-      <c r="E10" s="50" t="str">
+      <c r="E10" s="34" t="str">
         <f>D10&amp;123</f>
         <v>Kovibo123</v>
       </c>
@@ -1607,21 +1581,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="38">
         <v>2</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="35" t="str">
+      <c r="B11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="21" t="str">
         <f t="shared" ref="C11:C13" si="2">LEFT(PROPER(LEFT(B11,3)&amp;TRIM(RIGHT(SUBSTITUTE(B11," ",REPT(" ",99)),99))),6)</f>
         <v>Bujben</v>
       </c>
-      <c r="D11" s="35" t="str" cm="1">
+      <c r="D11" s="21" t="str" cm="1">
         <f t="array" ref="D11">StripAccent(C11)</f>
         <v>Bujben</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" ref="E11:E13" si="3">D11&amp;123</f>
         <v>Bujben123</v>
       </c>
@@ -1629,21 +1603,21 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="A12" s="39">
         <v>3</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="35" t="str">
+      <c r="B12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="21" t="str">
         <f t="shared" si="2"/>
         <v>Paplan</v>
       </c>
-      <c r="D12" s="35" t="str" cm="1">
+      <c r="D12" s="21" t="str" cm="1">
         <f t="array" ref="D12">StripAccent(C12)</f>
         <v>Paplan</v>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="27" t="str">
         <f t="shared" si="3"/>
         <v>Paplan123</v>
       </c>
@@ -1652,23 +1626,22 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="48" t="str">
+      <c r="B13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Budosh</v>
-      </c>
-      <c r="D13" s="48" t="str" cm="1">
-        <f t="array" ref="D13">StripAccent(C13)</f>
-        <v>Budosh</v>
+        <v>Budlaj</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>Budosh123</v>
+        <v>Budlaj123</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1676,143 +1649,143 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="40">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="46" t="str">
+      <c r="B17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="31" t="str">
         <f>LEFT(PROPER(LEFT(B17,3)&amp;TRIM(RIGHT(SUBSTITUTE(B17," ",REPT(" ",99)),99))),6)</f>
         <v>Telcsi</v>
       </c>
-      <c r="D17" s="46" t="str" cm="1">
+      <c r="D17" s="31" t="str" cm="1">
         <f t="array" ref="D17">StripAccent(C17)</f>
         <v>Telcsi</v>
       </c>
-      <c r="E17" s="50" t="str">
+      <c r="E17" s="34" t="str">
         <f>D17&amp;123</f>
         <v>Telcsi123</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="39">
         <v>2</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="35" t="str">
+      <c r="B18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="21" t="str">
         <f t="shared" ref="C18:C22" si="4">LEFT(PROPER(LEFT(B18,3)&amp;TRIM(RIGHT(SUBSTITUTE(B18," ",REPT(" ",99)),99))),6)</f>
         <v>Koldul</v>
       </c>
-      <c r="D18" s="35" t="str" cm="1">
+      <c r="D18" s="21" t="str" cm="1">
         <f t="array" ref="D18">StripAccent(C18)</f>
         <v>Koldul</v>
       </c>
-      <c r="E18" s="42" t="str">
+      <c r="E18" s="27" t="str">
         <f t="shared" ref="E18:E22" si="5">D18&amp;123</f>
         <v>Koldul123</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="39">
         <v>3</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="35" t="str">
+      <c r="B19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="21" t="str">
         <f t="shared" si="4"/>
         <v>Kocsim</v>
       </c>
-      <c r="D19" s="35" t="str" cm="1">
+      <c r="D19" s="21" t="str" cm="1">
         <f t="array" ref="D19">StripAccent(C19)</f>
         <v>Kocsim</v>
       </c>
-      <c r="E19" s="42" t="str">
+      <c r="E19" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Kocsim123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="55">
+      <c r="A20" s="39">
         <v>4</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="35" t="str">
+      <c r="B20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21" t="str">
         <f t="shared" si="4"/>
         <v>Végzet</v>
       </c>
-      <c r="D20" s="35" t="str" cm="1">
+      <c r="D20" s="21" t="str" cm="1">
         <f t="array" ref="D20">StripAccent(C20)</f>
         <v>Vegzet</v>
       </c>
-      <c r="E20" s="42" t="str">
+      <c r="E20" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Vegzet123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="A21" s="39">
         <v>5</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="35" t="str">
+      <c r="B21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="21" t="str">
         <f t="shared" si="4"/>
         <v>Mohabd</v>
       </c>
-      <c r="D21" s="35" t="str" cm="1">
+      <c r="D21" s="21" t="str" cm="1">
         <f t="array" ref="D21">StripAccent(C21)</f>
         <v>Mohabd</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Mohabd123</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="9">
         <v>6</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="48" t="str">
+      <c r="B22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Tankri</v>
       </c>
-      <c r="D22" s="48" t="str" cm="1">
+      <c r="D22" s="32" t="str" cm="1">
         <f t="array" ref="D22">StripAccent(C22)</f>
         <v>Tankri</v>
       </c>
@@ -1823,123 +1796,123 @@
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
+      <c r="A24" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="40">
         <v>1</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="46" t="str">
+      <c r="B26" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="31" t="str">
         <f>LEFT(PROPER(LEFT(B26,3)&amp;TRIM(RIGHT(SUBSTITUTE(B26," ",REPT(" ",99)),99))),6)</f>
         <v>Viselt</v>
       </c>
-      <c r="D26" s="46" t="str" cm="1">
+      <c r="D26" s="31" t="str" cm="1">
         <f t="array" ref="D26">StripAccent(C26)</f>
         <v>Viselt</v>
       </c>
-      <c r="E26" s="50" t="str">
+      <c r="E26" s="34" t="str">
         <f>D26&amp;123</f>
         <v>Viselt123</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="39">
         <v>2</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="35" t="str">
+      <c r="B27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21" t="str">
         <f>LEFT(PROPER(LEFT(B27,3)&amp;TRIM(RIGHT(SUBSTITUTE(B27," ",REPT(" ",99)),99))),6)</f>
         <v>Megmar</v>
       </c>
-      <c r="D27" s="35" t="str" cm="1">
+      <c r="D27" s="21" t="str" cm="1">
         <f t="array" ref="D27">StripAccent(C27)</f>
         <v>Megmar</v>
       </c>
-      <c r="E27" s="42" t="str">
+      <c r="E27" s="27" t="str">
         <f>D27&amp;123</f>
         <v>Megmar123</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="55">
+      <c r="A28" s="39">
         <v>3</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="35" t="str">
+      <c r="B28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="21" t="str">
         <f t="shared" ref="C28:C30" si="6">LEFT(PROPER(LEFT(B28,3)&amp;TRIM(RIGHT(SUBSTITUTE(B28," ",REPT(" ",99)),99))),6)</f>
         <v>Lakkat</v>
       </c>
-      <c r="D28" s="35" t="str" cm="1">
+      <c r="D28" s="21" t="str" cm="1">
         <f t="array" ref="D28">StripAccent(C28)</f>
         <v>Lakkat</v>
       </c>
-      <c r="E28" s="42" t="str">
+      <c r="E28" s="27" t="str">
         <f t="shared" ref="E28:E30" si="7">D28&amp;123</f>
         <v>Lakkat123</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="39">
         <v>4</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="35" t="str">
+      <c r="B29" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="21" t="str">
         <f t="shared" si="6"/>
         <v>Valmar</v>
       </c>
-      <c r="D29" s="35" t="str" cm="1">
+      <c r="D29" s="21" t="str" cm="1">
         <f t="array" ref="D29">StripAccent(C29)</f>
         <v>Valmar</v>
       </c>
-      <c r="E29" s="42" t="str">
+      <c r="E29" s="27" t="str">
         <f t="shared" si="7"/>
         <v>Valmar123</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+      <c r="A30" s="9">
         <v>5</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="48" t="str">
+      <c r="B30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="32" t="str">
         <f t="shared" si="6"/>
         <v>Balkon</v>
       </c>
-      <c r="D30" s="48" t="str" cm="1">
+      <c r="D30" s="32" t="str" cm="1">
         <f t="array" ref="D30">StripAccent(C30)</f>
         <v>Balkon</v>
       </c>
@@ -1955,8 +1928,8 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
